--- a/fuentes/contenidos/grado07/guion07/SolicitudGraficaLE_07_07_REC200.xlsx
+++ b/fuentes/contenidos/grado07/guion07/SolicitudGraficaLE_07_07_REC200.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="197">
   <si>
     <t>Fecha:</t>
   </si>
@@ -789,7 +789,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -836,8 +836,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1282,8 +1288,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1383,8 +1404,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1705,8 +1734,12 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="107">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1756,6 +1789,10 @@
     <cellStyle name="Hipervínculo" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1805,6 +1842,10 @@
     <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2493,7 +2534,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2953,71 +2994,89 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="30">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B14" s="62"/>
+        <v>IMG05</v>
+      </c>
+      <c r="B14" s="109">
+        <v>97642436</v>
+      </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F14" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>LE_07_07_REC200_IMG05n.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_07_07_REC200_IMG05a.jpg</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J14" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J14" s="109" t="s">
+        <v>189</v>
+      </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="30">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B15" s="62"/>
+        <v>IMG06</v>
+      </c>
+      <c r="B15" s="109">
+        <v>121514473</v>
+      </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F15" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>LE_07_07_REC200_IMG06n.jpg</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_07_07_REC200_IMG06a.jpg</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J15" s="109" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" s="109" t="s">
+        <v>194</v>
+      </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
